--- a/Problems_while_designing.xlsx
+++ b/Problems_while_designing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RTL_Desgin_and_Integration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgandhi\OneDrive\RTL_Desgin_and_Integration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF1CA1F-491A-4E7F-B666-59B7FF1FB7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA5230A-2D9D-4303-B709-AC461F2BBBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -93,6 +93,35 @@
 correct output.
 s = 0, out = m1
 s= 1, out = m2</t>
+  </si>
+  <si>
+    <t>mux8x1</t>
+  </si>
+  <si>
+    <t>mux8x1.v</t>
+  </si>
+  <si>
+    <t>Warning: "Port size (1) does not match connection size (32) for port i2"</t>
+  </si>
+  <si>
+    <t>While assiging 0 to any variable use e.g. 1'b0 (one bit zero). By default, it will consider 32 bit 0 instead of your required bit zero and it will give you this error.</t>
+  </si>
+  <si>
+    <t>Error (suppressible): (vsim-3053) Illegal output or inout port connection for port 'out'.
+Tried to connect "reg out (8x1) port" to "reg out (4x1) port".</t>
+  </si>
+  <si>
+    <t>port out (8x1) must be defined as wire as it is just driving the out (4x1) port.</t>
+  </si>
+  <si>
+    <t>mux8x1_tb.v</t>
+  </si>
+  <si>
+    <t>GetModuleFileName: The specified module could not be found</t>
+  </si>
+  <si>
+    <t>Need to include mux4x1.v to the tb file.
+Mux4x1 module is instantiated to mux8x1 and included in mux8x1.v file but not to the mux8x1_tb.v. So, by including 4x1 file to tb the error has been resolved.</t>
   </si>
 </sst>
 </file>
@@ -151,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,12 +201,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -460,25 +483,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:H39"/>
+  <dimension ref="B5:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="59.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="63.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="63.88671875" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -501,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -513,14 +536,14 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -534,14 +557,14 @@
         <v>12</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="6">
         <v>44874</v>
@@ -555,14 +578,14 @@
       <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>3</v>
       </c>
@@ -578,45 +601,81 @@
       <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="6">
+        <v>44879</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="6">
+        <v>44879</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>5</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="6">
+        <v>44879</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>6</v>
       </c>
@@ -627,7 +686,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -636,7 +695,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>7</v>
       </c>
@@ -647,7 +706,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>8</v>
       </c>
@@ -658,7 +717,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -667,7 +726,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>9</v>
       </c>
@@ -678,7 +737,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>10</v>
       </c>
@@ -689,7 +748,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -698,7 +757,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>11</v>
       </c>
@@ -709,7 +768,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>12</v>
       </c>
@@ -720,7 +779,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -729,7 +788,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -738,7 +797,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -747,7 +806,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -756,7 +815,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -765,7 +824,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -774,7 +833,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -783,7 +842,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -792,7 +851,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -801,7 +860,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -810,7 +869,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -819,7 +878,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -828,7 +887,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -837,7 +896,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -846,7 +905,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -855,7 +914,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -864,7 +923,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -873,6 +932,218 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Problems_while_designing.xlsx
+++ b/Problems_while_designing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgandhi\OneDrive\RTL_Desgin_and_Integration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA5230A-2D9D-4303-B709-AC461F2BBBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C35892-3418-4F1F-8E89-7C6E1DF1B015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +122,12 @@
   <si>
     <t>Need to include mux4x1.v to the tb file.
 Mux4x1 module is instantiated to mux8x1 and included in mux8x1.v file but not to the mux8x1_tb.v. So, by including 4x1 file to tb the error has been resolved.</t>
+  </si>
+  <si>
+    <t>Primitive output connection must be a scalar net</t>
+  </si>
+  <si>
+    <t>For Gate level implementation : Output of gate should be defined as 'wire' not 'reg'.</t>
   </si>
 </sst>
 </file>
@@ -486,7 +492,7 @@
   <dimension ref="B5:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,16 +681,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="C13" s="6">
+        <v>44880</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>

--- a/Problems_while_designing.xlsx
+++ b/Problems_while_designing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgandhi\OneDrive\RTL_Desgin_and_Integration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3de0cd961381ec4e/RTL_Design_and_Integration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C35892-3418-4F1F-8E89-7C6E1DF1B015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{30C35892-3418-4F1F-8E89-7C6E1DF1B015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BABC4F9-E876-4D87-B6BE-7301E63BAF7A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -128,6 +128,22 @@
   </si>
   <si>
     <t>For Gate level implementation : Output of gate should be defined as 'wire' not 'reg'.</t>
+  </si>
+  <si>
+    <t>full adder nbit</t>
+  </si>
+  <si>
+    <t>full_adder_nbit.v</t>
+  </si>
+  <si>
+    <t>fa.v</t>
+  </si>
+  <si>
+    <t>Getting expected result but with the delay on one cycle.</t>
+  </si>
+  <si>
+    <t>1 bit full adder was implemented using gates and it required 1 cycle to process 1 bit addition and generate result.
+Replaced gate based 1 bit adder with Data flow model (Using continuous assign) to complete 1 bit addition in single cycle.</t>
   </si>
 </sst>
 </file>
@@ -491,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,14 +720,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="C14" s="6">
+        <v>44936</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="5">

--- a/Problems_while_designing.xlsx
+++ b/Problems_while_designing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3de0cd961381ec4e/RTL_Design_and_Integration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{30C35892-3418-4F1F-8E89-7C6E1DF1B015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BABC4F9-E876-4D87-B6BE-7301E63BAF7A}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{60C853CC-E204-4396-BC0C-0191A744C656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22F1D6C1-28CE-4EFB-81FC-EC9A342B7D05}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -144,6 +144,20 @@
   <si>
     <t>1 bit full adder was implemented using gates and it required 1 cycle to process 1 bit addition and generate result.
 Replaced gate based 1 bit adder with Data flow model (Using continuous assign) to complete 1 bit addition in single cycle.</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>memory.v</t>
+  </si>
+  <si>
+    <t>ready_o signal's value was not being updated.
+Used non blocking statements for assigining value to ready_o signal.
+Multiple values were assigned in the same module (e.g under if, else, and outside if else loops)</t>
+  </si>
+  <si>
+    <t>Make sure that only one values is being assigned to the signal at a time to avoid value overriding.</t>
   </si>
 </sst>
 </file>
@@ -507,8 +521,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,22 +757,34 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>7</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="C15" s="6">
+        <v>44942</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>8</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>

--- a/Problems_while_designing.xlsx
+++ b/Problems_while_designing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3de0cd961381ec4e/RTL_Design_and_Integration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{60C853CC-E204-4396-BC0C-0191A744C656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22F1D6C1-28CE-4EFB-81FC-EC9A342B7D05}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{60C853CC-E204-4396-BC0C-0191A744C656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A90720E8-F989-4E23-A70C-146EE06E7BD9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -139,9 +139,6 @@
     <t>fa.v</t>
   </si>
   <si>
-    <t>Getting expected result but with the delay on one cycle.</t>
-  </si>
-  <si>
     <t>1 bit full adder was implemented using gates and it required 1 cycle to process 1 bit addition and generate result.
 Replaced gate based 1 bit adder with Data flow model (Using continuous assign) to complete 1 bit addition in single cycle.</t>
   </si>
@@ -158,6 +155,24 @@
   </si>
   <si>
     <t>Make sure that only one values is being assigned to the signal at a time to avoid value overriding.</t>
+  </si>
+  <si>
+    <t>memory_tb.v</t>
+  </si>
+  <si>
+    <t>memory_tb</t>
+  </si>
+  <si>
+    <t>Last operation of write and read is not being completed because making the required signal 0 immediately after completing the write/read "for" loop.</t>
+  </si>
+  <si>
+    <t>Getting expected result but with the delay of one cycle.</t>
+  </si>
+  <si>
+    <t>Used #20 after "for" loop to wait for 2 clock cycle to make the required signal 0. (Wait for the write/read operation to be completed)</t>
+  </si>
+  <si>
+    <t>Used @(posedge clk_i) to wait till the next positive edge of a clock to make the required signal 0. (Wait for the write/read operation to be completed)</t>
   </si>
 </sst>
 </file>
@@ -254,6 +269,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,9 +541,9 @@
   <dimension ref="B5:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,10 +770,10 @@
         <v>33</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -765,40 +784,64 @@
         <v>44942</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>8</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="6">
+        <v>44943</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="C17" s="6">
+        <v>44943</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">

--- a/Problems_while_designing.xlsx
+++ b/Problems_while_designing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3de0cd961381ec4e/RTL_Design_and_Integration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{60C853CC-E204-4396-BC0C-0191A744C656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A90720E8-F989-4E23-A70C-146EE06E7BD9}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{60C853CC-E204-4396-BC0C-0191A744C656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E37D94CF-20A5-4523-80AD-A202E230DD77}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,40 @@
   </si>
   <si>
     <t>Used @(posedge clk_i) to wait till the next positive edge of a clock to make the required signal 0. (Wait for the write/read operation to be completed)</t>
+  </si>
+  <si>
+    <t>memory_backdoor</t>
+  </si>
+  <si>
+    <t>memory_backdoor_tb.v</t>
+  </si>
+  <si>
+    <t>memory_backdoor_tb</t>
+  </si>
+  <si>
+    <t>elaboration arguments must be fatched before any operation start using those arguments.
+E.g test_case - Fatch at first in the initial block</t>
+  </si>
+  <si>
+    <t>$value$plusargs was not getting value from elaboration arguments.
+E.g test_case - Fatched after completing 20 reset cycles</t>
+  </si>
+  <si>
+    <t>memory_backdoor.v</t>
+  </si>
+  <si>
+    <t>Memory's depth was not being generated as expected.
+Depth was generated as size of WIDTH
+Because WIDTH and DEPTH of memory had been interchanged while defining memory for the first time.</t>
+  </si>
+  <si>
+    <t>Corrected the WIDTH and DEPTH for memory while defining memory.</t>
+  </si>
+  <si>
+    <t>Last operation for FD/BD write/read is not being completed as valid is set to 0 after completing the for loop.</t>
+  </si>
+  <si>
+    <t>Temp Sol: Used @(poseedge clk_i) two time after for loop to wait for two cycle to make valid = 0.</t>
   </si>
 </sst>
 </file>
@@ -196,12 +230,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -231,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -252,6 +292,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -540,18 +583,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="59.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="63.88671875" style="2" customWidth="1"/>
@@ -622,7 +665,9 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
       <c r="C8" s="6">
         <v>44874</v>
       </c>
@@ -644,7 +689,7 @@
     </row>
     <row r="9" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="6">
         <v>44875</v>
@@ -667,7 +712,7 @@
     </row>
     <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="6">
         <v>44879</v>
@@ -689,7 +734,9 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
       <c r="C11" s="6">
         <v>44879</v>
       </c>
@@ -711,7 +758,7 @@
     </row>
     <row r="12" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6">
         <v>44879</v>
@@ -734,7 +781,7 @@
     </row>
     <row r="13" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" s="6">
         <v>44880</v>
@@ -756,7 +803,9 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
+      <c r="B14" s="5">
+        <v>9</v>
+      </c>
       <c r="C14" s="6">
         <v>44936</v>
       </c>
@@ -778,7 +827,7 @@
     </row>
     <row r="15" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15" s="6">
         <v>44942</v>
@@ -801,7 +850,7 @@
     </row>
     <row r="16" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C16" s="6">
         <v>44943</v>
@@ -823,7 +872,9 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
       <c r="C17" s="6">
         <v>44943</v>
       </c>
@@ -843,40 +894,78 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6">
+        <v>44944</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C19" s="6">
+        <v>44944</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6">
+        <v>44944</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -887,7 +976,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -897,7 +986,9 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
+      <c r="B23" s="5">
+        <v>18</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -906,7 +997,9 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
+      <c r="B24" s="5">
+        <v>19</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -915,7 +1008,9 @@
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="5"/>
+      <c r="B25" s="5">
+        <v>20</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -924,7 +1019,9 @@
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
+      <c r="B26" s="5">
+        <v>21</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -933,7 +1030,9 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="5"/>
+      <c r="B27" s="5">
+        <v>22</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -942,7 +1041,9 @@
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
+      <c r="B28" s="5">
+        <v>23</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -951,7 +1052,9 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="5"/>
+      <c r="B29" s="5">
+        <v>24</v>
+      </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -960,7 +1063,9 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
+      <c r="B30" s="5">
+        <v>25</v>
+      </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -969,7 +1074,9 @@
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="5"/>
+      <c r="B31" s="5">
+        <v>26</v>
+      </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -978,7 +1085,9 @@
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="5"/>
+      <c r="B32" s="5">
+        <v>27</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -987,7 +1096,9 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="5"/>
+      <c r="B33" s="5">
+        <v>28</v>
+      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -996,7 +1107,9 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="5"/>
+      <c r="B34" s="5">
+        <v>29</v>
+      </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1005,7 +1118,9 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="5"/>
+      <c r="B35" s="5">
+        <v>30</v>
+      </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1014,7 +1129,9 @@
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
+      <c r="B36" s="5">
+        <v>31</v>
+      </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1023,7 +1140,9 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="5"/>
+      <c r="B37" s="5">
+        <v>32</v>
+      </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1032,7 +1151,9 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
+      <c r="B38" s="5">
+        <v>33</v>
+      </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1041,7 +1162,9 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="5"/>
+      <c r="B39" s="5">
+        <v>34</v>
+      </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -1050,214 +1173,515 @@
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="5">
+        <v>35</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="5">
+        <v>36</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="5">
+        <v>37</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="5">
+        <v>38</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="5">
+        <v>39</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="5">
+        <v>40</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="5">
+        <v>41</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="5">
+        <v>42</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="5">
+        <v>43</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="5">
+        <v>44</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="5">
+        <v>45</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="5">
+        <v>46</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="5">
+        <v>47</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="5">
+        <v>48</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="5">
+        <v>49</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="5">
+        <v>50</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="5">
+        <v>51</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="5">
+        <v>52</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="5">
+        <v>53</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="5">
+        <v>54</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="5">
+        <v>55</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="5">
+        <v>56</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="5">
+        <v>57</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="5">
+        <v>58</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="5">
+        <v>59</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="5">
+        <v>60</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="5">
+        <v>61</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="5">
+        <v>62</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="5">
+        <v>63</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="5">
+        <v>64</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="5">
+        <v>65</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="5">
+        <v>66</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="5">
+        <v>67</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="5">
+        <v>68</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="5">
+        <v>69</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="5">
+        <v>70</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="5">
+        <v>71</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="5">
+        <v>72</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="5">
+        <v>73</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="5">
+        <v>74</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="5">
+        <v>75</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81" s="5">
+        <v>76</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B82" s="5">
+        <v>77</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>

--- a/Problems_while_designing.xlsx
+++ b/Problems_while_designing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3de0cd961381ec4e/RTL_Design_and_Integration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgandhi\OneDrive\RTL_Design_and_Integration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{60C853CC-E204-4396-BC0C-0191A744C656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E37D94CF-20A5-4523-80AD-A202E230DD77}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B179A6-FE90-43B2-93A5-0C583705A207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -207,6 +207,19 @@
   </si>
   <si>
     <t>Temp Sol: Used @(poseedge clk_i) two time after for loop to wait for two cycle to make valid = 0.</t>
+  </si>
+  <si>
+    <t>pattern_detector</t>
+  </si>
+  <si>
+    <t>pattern_detector.v</t>
+  </si>
+  <si>
+    <t>Pattern Detected flag is not being reset.</t>
+  </si>
+  <si>
+    <t>Pattern detected flag needs to be set to zero once it is come out of the final state.
+Make the flag as zero in other states.</t>
   </si>
 </sst>
 </file>
@@ -312,10 +325,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -583,10 +592,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,16 +972,28 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>16</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="C21" s="6">
+        <v>44956</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="5">

--- a/Problems_while_designing.xlsx
+++ b/Problems_while_designing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgandhi\OneDrive\RTL_Design_and_Integration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B179A6-FE90-43B2-93A5-0C583705A207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56AFF0E-9AA0-4AEF-8905-6CB4B6AF4AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -220,6 +220,24 @@
   <si>
     <t>Pattern detected flag needs to be set to zero once it is come out of the final state.
 Make the flag as zero in other states.</t>
+  </si>
+  <si>
+    <t>sysc_fifo</t>
+  </si>
+  <si>
+    <t>sync_fifo.v</t>
+  </si>
+  <si>
+    <t>Counter to detect full and empty is counting more than memory size. Because of that read is not being done properly as empty and read operation is depend on counter. Counter should not couunt more than memory locations</t>
+  </si>
+  <si>
+    <t>Use empty and full flag for counter to increment or decrement. By doing this we are restricting the counter to increment or decrement after the fifo is full or empty.</t>
+  </si>
+  <si>
+    <t>wr_error and rd_error flag are not being zero after detection of the error.</t>
+  </si>
+  <si>
+    <t>Use the else condition in write and read operation to make those flag zero after detection for the first time.</t>
   </si>
 </sst>
 </file>
@@ -592,10 +610,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,27 +1013,51 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="6">
+        <v>44964</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="C23" s="6">
+        <v>44964</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="5">

--- a/Problems_while_designing.xlsx
+++ b/Problems_while_designing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgandhi\OneDrive\RTL_Design_and_Integration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3de0cd961381ec4e/RTL_Design_and_Integration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56AFF0E-9AA0-4AEF-8905-6CB4B6AF4AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{B15D65A6-4734-4B26-92BB-DD930674BBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F394A7A-3AED-4870-813A-65AFFCF6F98F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -238,6 +238,67 @@
   </si>
   <si>
     <t>Use the else condition in write and read operation to make those flag zero after detection for the first time.</t>
+  </si>
+  <si>
+    <t>Read and write concurrent operation is not being performed due to the incorrect logic.</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>1. Parameterized modules
+2. Parameter overriding
+3. $values$plusargs - Elaboration Arguments to add starting address and num of writes/read.
+4. Task
+5. wait - keyword
+6. $random to generate and assign random value to store in to the memory.</t>
+  </si>
+  <si>
+    <t>1. Mealy and Moore state machines
+2. State diagrams to RTL code
+3. Overlapped pattern detection</t>
+  </si>
+  <si>
+    <t>1. $value$plusargs to get strings from Elaboration arguments.
+2. $readmemh, $readmemb, $writememh, $writememb for backdoor access to memory.
+3. File handling directives - $fopen, $fclose, $fmonitor, $fdisplay</t>
+  </si>
+  <si>
+    <t>1. FIFO Depth Calculation</t>
+  </si>
+  <si>
+    <t>1. Synchronizer (1 stage, 2 stage, etc) for CDC
+2. Gray code to avoid multiple bit changing gliches.
+3. Verification logic to verify concurrent read-write operation using Fork-Join.</t>
+  </si>
+  <si>
+    <t>priority_controller</t>
+  </si>
+  <si>
+    <t>priority_controller.v</t>
+  </si>
+  <si>
+    <t>For state machine, using 1 hot coding to assing value to state. But still state is getting 1010 value. Value should be in the range of 0001, 0010, 0100 and 1000 only.</t>
+  </si>
+  <si>
+    <t>State: 0010, State machine should be in INTR_DETECTED state but it goes in to the default</t>
+  </si>
+  <si>
+    <t>Defined a parameter with a value 0010 instead of 4'b0010. As bits for the number has not been defined the parameter is getting random value. Because of this it is getting in to the default state.</t>
+  </si>
+  <si>
+    <t>1. Always assign a value with predefine number of bits (e.g 4'b0001). Otherwise it will consider random bit value itself and get you in the trouble.</t>
+  </si>
+  <si>
+    <t>Whatever the test case, it always consider high reg is having highest priority. (e.g. reg 0 will have always lowest priority value and reg 15 will have always highest priority value). Interrupt should be served based on assigned priority value.</t>
+  </si>
+  <si>
+    <t>1.Do not use non-blocking assignment for combinational logic</t>
+  </si>
+  <si>
+    <t>Use blocking statement for combinational logic and non-blocking for sequencial logic.
+Used blocking assignment instead of non blocking. Used a reg (cur_highest_prio)  with the if condition to make a decision to get in to if loop and update the value for the same reg (cur_highest_prio).
+As I was using non blocking assignment the value for this reg is not being updated immediately (it needs to wait till next clock cycle and before that for loop completes) So to avoid that used blocking statements to assign a new value to this reg.</t>
   </si>
 </sst>
 </file>
@@ -275,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -298,23 +359,200 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,6 +565,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -343,6 +635,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,12 +904,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:H92"/>
+  <dimension ref="B4:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,1130 +921,1337 @@
     <col min="6" max="6" width="21.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="59.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="63.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="9" max="9" width="46.5546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
+      <c r="I5" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>44873</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>44873</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="13">
         <v>3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>44874</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B9" s="13">
         <v>4</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>44875</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="13">
         <v>5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>44879</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="13">
         <v>6</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>44879</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="13">
         <v>7</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>44879</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="13">
         <v>8</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>44880</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="13">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>44936</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="2:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13">
         <v>10</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>44942</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
+      <c r="I15" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="13">
         <v>11</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>44943</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="13">
         <v>12</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>44943</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="13">
         <v>13</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>44944</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
+      <c r="I18" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="13">
         <v>14</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>44944</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="13">
         <v>15</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>44944</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="13">
         <v>16</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>44956</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
+      <c r="I21" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="13">
         <v>17</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>44964</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="5">
+      <c r="I22" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="13">
         <v>18</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>44964</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="5">
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="13">
         <v>19</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="5">
+      <c r="C24" s="4">
+        <v>44964</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13">
         <v>20</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="5">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="13">
         <v>21</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="5">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="2:9" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="13">
         <v>22</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="5">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="13">
         <v>23</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="5">
+      <c r="C28" s="4">
+        <v>44985</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="13">
         <v>24</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="5">
+      <c r="C29" s="4">
+        <v>44987</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="24"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="2:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="13">
         <v>25</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="5">
+      <c r="C30" s="4">
+        <v>44988</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="13">
         <v>26</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="5">
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="13">
         <v>27</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="5">
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="13">
         <v>28</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="5">
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="13">
         <v>29</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="5">
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="13">
         <v>30</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="5">
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="13">
         <v>31</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="5">
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="13">
         <v>32</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="5">
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="13">
         <v>33</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="5">
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="14"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="13">
         <v>34</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="5">
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="14"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="13">
         <v>35</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="5">
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="13">
         <v>36</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="5">
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="14"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="13">
         <v>37</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="5">
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="13">
         <v>38</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="5">
+      <c r="C43" s="4"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="14"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="13">
         <v>39</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="5">
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="13">
         <v>40</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="5">
+      <c r="C45" s="4"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="13">
         <v>41</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="5">
+      <c r="C46" s="4"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="13">
         <v>42</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="5">
+      <c r="C47" s="4"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="14"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="13">
         <v>43</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="5">
+      <c r="C48" s="4"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="13">
         <v>44</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="5">
+      <c r="C49" s="4"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="13">
         <v>45</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="5">
+      <c r="C50" s="4"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="14"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="13">
         <v>46</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="5">
+      <c r="C51" s="4"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="14"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="13">
         <v>47</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="5">
+      <c r="C52" s="4"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="14"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="13">
         <v>48</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="5">
+      <c r="C53" s="4"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="14"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="13">
         <v>49</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="5">
+      <c r="C54" s="4"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="13">
         <v>50</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="5">
+      <c r="C55" s="4"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="14"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="13">
         <v>51</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="5">
+      <c r="C56" s="4"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="14"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="13">
         <v>52</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="5">
+      <c r="C57" s="4"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="14"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="13">
         <v>53</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="5">
+      <c r="C58" s="4"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="14"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="13">
         <v>54</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="5">
+      <c r="C59" s="4"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="14"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="13">
         <v>55</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="5">
+      <c r="C60" s="4"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="14"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="13">
         <v>56</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="5">
+      <c r="C61" s="4"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="14"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="13">
         <v>57</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="5">
+      <c r="C62" s="4"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="14"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="13">
         <v>58</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="5">
+      <c r="C63" s="4"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="14"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="13">
         <v>59</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="5">
+      <c r="C64" s="4"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="14"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="13">
         <v>60</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="5">
+      <c r="C65" s="4"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="14"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="13">
         <v>61</v>
       </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="5">
+      <c r="C66" s="4"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="14"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="13">
         <v>62</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="5">
+      <c r="C67" s="4"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="14"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="13">
         <v>63</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="5">
+      <c r="C68" s="4"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="14"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="13">
         <v>64</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="5">
+      <c r="C69" s="4"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="14"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="13">
         <v>65</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="5">
+      <c r="C70" s="4"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="14"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="13">
         <v>66</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="5">
+      <c r="C71" s="4"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="14"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="13">
         <v>67</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="5">
+      <c r="C72" s="4"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="14"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="13">
         <v>68</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="5">
+      <c r="C73" s="4"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="14"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="13">
         <v>69</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="5">
+      <c r="C74" s="4"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="14"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="13">
         <v>70</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="5">
+      <c r="C75" s="4"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="14"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="13">
         <v>71</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="5">
+      <c r="C76" s="4"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="14"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="13">
         <v>72</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="5">
+      <c r="C77" s="4"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="14"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="13">
         <v>73</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="5">
+      <c r="C78" s="4"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="14"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B79" s="13">
         <v>74</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="5">
+      <c r="C79" s="4"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="14"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80" s="13">
         <v>75</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="5">
+      <c r="C80" s="4"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="14"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="13">
         <v>76</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="5">
+      <c r="C81" s="4"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="14"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82" s="13">
         <v>77</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="14"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="13"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="14"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="13"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="14"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="13"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="14"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="13"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="14"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="13"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="14"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="13"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="14"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="13"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="14"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="13"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="14"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="13"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="14"/>
+    </row>
+    <row r="92" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="15"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Problems_while_designing.xlsx
+++ b/Problems_while_designing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3de0cd961381ec4e/RTL_Design_and_Integration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgandhi\OneDrive\RTL_Design_and_Integration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{B15D65A6-4734-4B26-92BB-DD930674BBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F394A7A-3AED-4870-813A-65AFFCF6F98F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6602CF64-BD29-4EB5-94FC-E77C49E8E095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -246,59 +246,99 @@
     <t>Learning</t>
   </si>
   <si>
+    <t>1. Mealy and Moore state machines
+2. State diagrams to RTL code
+3. Overlapped pattern detection</t>
+  </si>
+  <si>
+    <t>For state machine, using 1 hot coding to assing value to state. But still state is getting 1010 value. Value should be in the range of 0001, 0010, 0100 and 1000 only.</t>
+  </si>
+  <si>
+    <t>State: 0010, State machine should be in INTR_DETECTED state but it goes in to the default</t>
+  </si>
+  <si>
+    <t>Defined a parameter with a value 0010 instead of 4'b0010. As bits for the number has not been defined the parameter is getting random value. Because of this it is getting in to the default state.</t>
+  </si>
+  <si>
+    <t>1. Always assign a value with predefine number of bits (e.g 4'b0001). Otherwise it will consider random bit value itself and get you in the trouble.</t>
+  </si>
+  <si>
+    <t>Whatever the test case, it always consider high reg is having highest priority. (e.g. reg 0 will have always lowest priority value and reg 15 will have always highest priority value). Interrupt should be served based on assigned priority value.</t>
+  </si>
+  <si>
+    <t>1.Do not use non-blocking assignment for combinational logic</t>
+  </si>
+  <si>
+    <t>Use blocking statement for combinational logic and non-blocking for sequencial logic.
+Used blocking assignment instead of non blocking. Used a reg (cur_highest_prio)  with the if condition to make a decision to get in to if loop and update the value for the same reg (cur_highest_prio).
+As I was using non blocking assignment the value for this reg is not being updated immediately (it needs to wait till next clock cycle and before that for loop completes) So to avoid that used blocking statements to assign a new value to this reg.</t>
+  </si>
+  <si>
+    <t>fv_arbiter</t>
+  </si>
+  <si>
+    <t>fv_arbiter.v</t>
+  </si>
+  <si>
+    <t>Input signal is not being captured.</t>
+  </si>
+  <si>
+    <t>Due to CDC we need to use 2 flop syncronizer to capture the signal</t>
+  </si>
+  <si>
+    <t>CDC Techniques
+1. 2 flop synchronizers
+2. Hand shaking signals (to not change the input value untill is has been detected by the circuit)
+3. FIFO - If we need to transfer data from one clock domain to another</t>
+  </si>
+  <si>
+    <t>1. APB Interface to communicate with Processor
+2. FSM to communicate with SPI slave</t>
+  </si>
+  <si>
+    <t>SPI Controller</t>
+  </si>
+  <si>
+    <t>spi_ctrl.v</t>
+  </si>
+  <si>
+    <t>Full flag is not being set to 1 when the FIFO is full.
+Empty flag is being set to 1 unnecessary without performing any read operation</t>
+  </si>
+  <si>
+    <t>1. FIFO Depth Calculation
+2. Fork Join</t>
+  </si>
+  <si>
+    <t>&lt;projectname&gt;.runs&gt;runme.log file - Provides info for all the steps taken to complete systhesis of design. Log of run is stored in this file.</t>
+  </si>
+  <si>
+    <t>1. Synchronizer (1 stage, 2 stage, etc) for CDC
+2. Gray code to avoid multiple bit changing gliches.
+3. Verification logic to verify concurrent read-write operation using Fork-Join.
+4. Circuler buffer - write/read pointer reset to 0 once they reach the last address of buffer</t>
+  </si>
+  <si>
     <t>1. Parameterized modules
 2. Parameter overriding
 3. $values$plusargs - Elaboration Arguments to add starting address and num of writes/read.
-4. Task
+4. Task &amp; Function
 5. wait - keyword
-6. $random to generate and assign random value to store in to the memory.</t>
-  </si>
-  <si>
-    <t>1. Mealy and Moore state machines
-2. State diagrams to RTL code
-3. Overlapped pattern detection</t>
+6. $random to generate and assign random value to store in to the memory.
+7. Practically, Memory length must only ever be a power of two, 2^N , in order to avoid simulation/hardware mismatch.</t>
   </si>
   <si>
     <t>1. $value$plusargs to get strings from Elaboration arguments.
 2. $readmemh, $readmemb, $writememh, $writememb for backdoor access to memory.
-3. File handling directives - $fopen, $fclose, $fmonitor, $fdisplay</t>
-  </si>
-  <si>
-    <t>1. FIFO Depth Calculation</t>
-  </si>
-  <si>
-    <t>1. Synchronizer (1 stage, 2 stage, etc) for CDC
-2. Gray code to avoid multiple bit changing gliches.
-3. Verification logic to verify concurrent read-write operation using Fork-Join.</t>
-  </si>
-  <si>
-    <t>priority_controller</t>
-  </si>
-  <si>
-    <t>priority_controller.v</t>
-  </si>
-  <si>
-    <t>For state machine, using 1 hot coding to assing value to state. But still state is getting 1010 value. Value should be in the range of 0001, 0010, 0100 and 1000 only.</t>
-  </si>
-  <si>
-    <t>State: 0010, State machine should be in INTR_DETECTED state but it goes in to the default</t>
-  </si>
-  <si>
-    <t>Defined a parameter with a value 0010 instead of 4'b0010. As bits for the number has not been defined the parameter is getting random value. Because of this it is getting in to the default state.</t>
-  </si>
-  <si>
-    <t>1. Always assign a value with predefine number of bits (e.g 4'b0001). Otherwise it will consider random bit value itself and get you in the trouble.</t>
-  </si>
-  <si>
-    <t>Whatever the test case, it always consider high reg is having highest priority. (e.g. reg 0 will have always lowest priority value and reg 15 will have always highest priority value). Interrupt should be served based on assigned priority value.</t>
-  </si>
-  <si>
-    <t>1.Do not use non-blocking assignment for combinational logic</t>
-  </si>
-  <si>
-    <t>Use blocking statement for combinational logic and non-blocking for sequencial logic.
-Used blocking assignment instead of non blocking. Used a reg (cur_highest_prio)  with the if condition to make a decision to get in to if loop and update the value for the same reg (cur_highest_prio).
-As I was using non blocking assignment the value for this reg is not being updated immediately (it needs to wait till next clock cycle and before that for loop completes) So to avoid that used blocking statements to assign a new value to this reg.</t>
+3. File handling directives - $fopen, $fclose, $fmonitor, $fdisplay
+4. Avalon Interface
+5. Design constraints and Timing constraints for memory</t>
+  </si>
+  <si>
+    <t>interrupt_controller</t>
+  </si>
+  <si>
+    <t>interrupt_controller.v</t>
   </si>
 </sst>
 </file>
@@ -336,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -516,37 +556,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,7 +580,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -579,7 +592,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -600,6 +613,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -607,18 +629,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,10 +645,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -906,10 +912,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,38 +927,38 @@
     <col min="6" max="6" width="21.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="59.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="63.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="46.5546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="4">
@@ -969,10 +975,10 @@
       <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>2</v>
       </c>
       <c r="C7" s="4">
@@ -991,10 +997,10 @@
       <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>3</v>
       </c>
       <c r="C8" s="4">
@@ -1015,10 +1021,10 @@
       <c r="H8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="2:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>4</v>
       </c>
       <c r="C9" s="4">
@@ -1039,10 +1045,10 @@
       <c r="H9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>5</v>
       </c>
       <c r="C10" s="4">
@@ -1063,10 +1069,10 @@
       <c r="H10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>6</v>
       </c>
       <c r="C11" s="4">
@@ -1087,10 +1093,10 @@
       <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>7</v>
       </c>
       <c r="C12" s="4">
@@ -1111,10 +1117,10 @@
       <c r="H12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>8</v>
       </c>
       <c r="C13" s="4">
@@ -1135,10 +1141,10 @@
       <c r="H13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>9</v>
       </c>
       <c r="C14" s="4">
@@ -1159,10 +1165,10 @@
       <c r="H14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="14"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="2:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>10</v>
       </c>
       <c r="C15" s="4">
@@ -1183,12 +1189,12 @@
       <c r="H15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>67</v>
+      <c r="I15" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>11</v>
       </c>
       <c r="C16" s="4">
@@ -1209,10 +1215,10 @@
       <c r="H16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="13">
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="2:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
         <v>12</v>
       </c>
       <c r="C17" s="4">
@@ -1233,10 +1239,10 @@
       <c r="H17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>13</v>
       </c>
       <c r="C18" s="4">
@@ -1257,12 +1263,12 @@
       <c r="H18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>69</v>
+      <c r="I18" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>14</v>
       </c>
       <c r="C19" s="4">
@@ -1283,10 +1289,10 @@
       <c r="H19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="21"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>15</v>
       </c>
       <c r="C20" s="4">
@@ -1307,10 +1313,10 @@
       <c r="H20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="22"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>16</v>
       </c>
       <c r="C21" s="4">
@@ -1331,12 +1337,12 @@
       <c r="H21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>68</v>
+      <c r="I21" s="18" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>17</v>
       </c>
       <c r="C22" s="4">
@@ -1357,12 +1363,12 @@
       <c r="H22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="20" t="s">
-        <v>70</v>
+      <c r="I22" s="22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>18</v>
       </c>
       <c r="C23" s="4">
@@ -1377,16 +1383,16 @@
       <c r="F23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>63</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="21"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>19</v>
       </c>
       <c r="C24" s="4">
@@ -1405,24 +1411,26 @@
         <v>65</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13">
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="12">
         <v>20</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="20" t="s">
-        <v>71</v>
+      <c r="I25" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>21</v>
       </c>
       <c r="C26" s="3"/>
@@ -1431,10 +1439,10 @@
       <c r="F26" s="3"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="21"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="2:9" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>22</v>
       </c>
       <c r="C27" s="3"/>
@@ -1443,108 +1451,126 @@
       <c r="F27" s="3"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="22"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>23</v>
       </c>
       <c r="C28" s="4">
         <v>44985</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>24</v>
       </c>
       <c r="C29" s="4">
         <v>44987</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H29" s="24"/>
-      <c r="I29" s="22"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="2:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>25</v>
       </c>
       <c r="C30" s="4">
         <v>44988</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="H30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="13">
+    </row>
+    <row r="31" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B31" s="12">
         <v>26</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="26"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="13">
+      <c r="E31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="12">
         <v>27</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="14"/>
+      <c r="I32" s="21" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>28</v>
       </c>
       <c r="C33" s="4"/>
@@ -1553,10 +1579,10 @@
       <c r="F33" s="3"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="14"/>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <v>29</v>
       </c>
       <c r="C34" s="4"/>
@@ -1565,10 +1591,10 @@
       <c r="F34" s="3"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="13">
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B35" s="12">
         <v>30</v>
       </c>
       <c r="C35" s="4"/>
@@ -1577,10 +1603,12 @@
       <c r="F35" s="3"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="14"/>
+      <c r="I35" s="21" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>31</v>
       </c>
       <c r="C36" s="4"/>
@@ -1589,10 +1617,10 @@
       <c r="F36" s="3"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="14"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>32</v>
       </c>
       <c r="C37" s="4"/>
@@ -1601,10 +1629,10 @@
       <c r="F37" s="3"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="14"/>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>33</v>
       </c>
       <c r="C38" s="4"/>
@@ -1613,10 +1641,10 @@
       <c r="F38" s="3"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="14"/>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>34</v>
       </c>
       <c r="C39" s="4"/>
@@ -1625,10 +1653,10 @@
       <c r="F39" s="3"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="14"/>
+      <c r="I39" s="13"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>35</v>
       </c>
       <c r="C40" s="4"/>
@@ -1637,10 +1665,10 @@
       <c r="F40" s="3"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="14"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <v>36</v>
       </c>
       <c r="C41" s="4"/>
@@ -1649,10 +1677,10 @@
       <c r="F41" s="3"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="14"/>
+      <c r="I41" s="13"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>37</v>
       </c>
       <c r="C42" s="4"/>
@@ -1661,10 +1689,10 @@
       <c r="F42" s="3"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="14"/>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <v>38</v>
       </c>
       <c r="C43" s="4"/>
@@ -1673,10 +1701,10 @@
       <c r="F43" s="3"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="14"/>
+      <c r="I43" s="13"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <v>39</v>
       </c>
       <c r="C44" s="4"/>
@@ -1685,10 +1713,10 @@
       <c r="F44" s="3"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="14"/>
+      <c r="I44" s="13"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <v>40</v>
       </c>
       <c r="C45" s="4"/>
@@ -1697,10 +1725,10 @@
       <c r="F45" s="3"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="14"/>
+      <c r="I45" s="13"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <v>41</v>
       </c>
       <c r="C46" s="4"/>
@@ -1709,10 +1737,10 @@
       <c r="F46" s="3"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="14"/>
+      <c r="I46" s="13"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>42</v>
       </c>
       <c r="C47" s="4"/>
@@ -1721,10 +1749,10 @@
       <c r="F47" s="3"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="14"/>
+      <c r="I47" s="13"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>43</v>
       </c>
       <c r="C48" s="4"/>
@@ -1733,10 +1761,10 @@
       <c r="F48" s="3"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="14"/>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <v>44</v>
       </c>
       <c r="C49" s="4"/>
@@ -1745,10 +1773,10 @@
       <c r="F49" s="3"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="14"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>45</v>
       </c>
       <c r="C50" s="4"/>
@@ -1757,10 +1785,10 @@
       <c r="F50" s="3"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="14"/>
+      <c r="I50" s="13"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>46</v>
       </c>
       <c r="C51" s="4"/>
@@ -1769,10 +1797,10 @@
       <c r="F51" s="3"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="14"/>
+      <c r="I51" s="13"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <v>47</v>
       </c>
       <c r="C52" s="4"/>
@@ -1781,10 +1809,10 @@
       <c r="F52" s="3"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="14"/>
+      <c r="I52" s="13"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <v>48</v>
       </c>
       <c r="C53" s="4"/>
@@ -1793,10 +1821,10 @@
       <c r="F53" s="3"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="14"/>
+      <c r="I53" s="13"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="13">
+      <c r="B54" s="12">
         <v>49</v>
       </c>
       <c r="C54" s="4"/>
@@ -1805,10 +1833,10 @@
       <c r="F54" s="3"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="14"/>
+      <c r="I54" s="13"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <v>50</v>
       </c>
       <c r="C55" s="4"/>
@@ -1817,10 +1845,10 @@
       <c r="F55" s="3"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="14"/>
+      <c r="I55" s="13"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="13">
+      <c r="B56" s="12">
         <v>51</v>
       </c>
       <c r="C56" s="4"/>
@@ -1829,10 +1857,10 @@
       <c r="F56" s="3"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="14"/>
+      <c r="I56" s="13"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <v>52</v>
       </c>
       <c r="C57" s="4"/>
@@ -1841,10 +1869,10 @@
       <c r="F57" s="3"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="14"/>
+      <c r="I57" s="13"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="13">
+      <c r="B58" s="12">
         <v>53</v>
       </c>
       <c r="C58" s="4"/>
@@ -1853,10 +1881,10 @@
       <c r="F58" s="3"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="14"/>
+      <c r="I58" s="13"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <v>54</v>
       </c>
       <c r="C59" s="4"/>
@@ -1865,10 +1893,10 @@
       <c r="F59" s="3"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="14"/>
+      <c r="I59" s="13"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <v>55</v>
       </c>
       <c r="C60" s="4"/>
@@ -1877,10 +1905,10 @@
       <c r="F60" s="3"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="14"/>
+      <c r="I60" s="13"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="13">
+      <c r="B61" s="12">
         <v>56</v>
       </c>
       <c r="C61" s="4"/>
@@ -1889,10 +1917,10 @@
       <c r="F61" s="3"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="14"/>
+      <c r="I61" s="13"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="13">
+      <c r="B62" s="12">
         <v>57</v>
       </c>
       <c r="C62" s="4"/>
@@ -1901,10 +1929,10 @@
       <c r="F62" s="3"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="14"/>
+      <c r="I62" s="13"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="13">
+      <c r="B63" s="12">
         <v>58</v>
       </c>
       <c r="C63" s="4"/>
@@ -1913,10 +1941,10 @@
       <c r="F63" s="3"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="14"/>
+      <c r="I63" s="13"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <v>59</v>
       </c>
       <c r="C64" s="4"/>
@@ -1925,10 +1953,10 @@
       <c r="F64" s="3"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="14"/>
+      <c r="I64" s="13"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="13">
+      <c r="B65" s="12">
         <v>60</v>
       </c>
       <c r="C65" s="4"/>
@@ -1937,10 +1965,10 @@
       <c r="F65" s="3"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="14"/>
+      <c r="I65" s="13"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="13">
+      <c r="B66" s="12">
         <v>61</v>
       </c>
       <c r="C66" s="4"/>
@@ -1949,10 +1977,10 @@
       <c r="F66" s="3"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="14"/>
+      <c r="I66" s="13"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <v>62</v>
       </c>
       <c r="C67" s="4"/>
@@ -1961,10 +1989,10 @@
       <c r="F67" s="3"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="14"/>
+      <c r="I67" s="13"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="13">
+      <c r="B68" s="12">
         <v>63</v>
       </c>
       <c r="C68" s="4"/>
@@ -1973,10 +2001,10 @@
       <c r="F68" s="3"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="14"/>
+      <c r="I68" s="13"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="13">
+      <c r="B69" s="12">
         <v>64</v>
       </c>
       <c r="C69" s="4"/>
@@ -1985,10 +2013,10 @@
       <c r="F69" s="3"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="14"/>
+      <c r="I69" s="13"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="13">
+      <c r="B70" s="12">
         <v>65</v>
       </c>
       <c r="C70" s="4"/>
@@ -1997,10 +2025,10 @@
       <c r="F70" s="3"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="14"/>
+      <c r="I70" s="13"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="13">
+      <c r="B71" s="12">
         <v>66</v>
       </c>
       <c r="C71" s="4"/>
@@ -2009,10 +2037,10 @@
       <c r="F71" s="3"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="14"/>
+      <c r="I71" s="13"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="13">
+      <c r="B72" s="12">
         <v>67</v>
       </c>
       <c r="C72" s="4"/>
@@ -2021,10 +2049,10 @@
       <c r="F72" s="3"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="14"/>
+      <c r="I72" s="13"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="13">
+      <c r="B73" s="12">
         <v>68</v>
       </c>
       <c r="C73" s="4"/>
@@ -2033,10 +2061,10 @@
       <c r="F73" s="3"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="14"/>
+      <c r="I73" s="13"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="13">
+      <c r="B74" s="12">
         <v>69</v>
       </c>
       <c r="C74" s="4"/>
@@ -2045,10 +2073,10 @@
       <c r="F74" s="3"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="14"/>
+      <c r="I74" s="13"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="13">
+      <c r="B75" s="12">
         <v>70</v>
       </c>
       <c r="C75" s="4"/>
@@ -2057,10 +2085,10 @@
       <c r="F75" s="3"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="14"/>
+      <c r="I75" s="13"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="13">
+      <c r="B76" s="12">
         <v>71</v>
       </c>
       <c r="C76" s="4"/>
@@ -2069,10 +2097,10 @@
       <c r="F76" s="3"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="14"/>
+      <c r="I76" s="13"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="13">
+      <c r="B77" s="12">
         <v>72</v>
       </c>
       <c r="C77" s="4"/>
@@ -2081,10 +2109,10 @@
       <c r="F77" s="3"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="14"/>
+      <c r="I77" s="13"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B78" s="13">
+      <c r="B78" s="12">
         <v>73</v>
       </c>
       <c r="C78" s="4"/>
@@ -2093,10 +2121,10 @@
       <c r="F78" s="3"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="14"/>
+      <c r="I78" s="13"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B79" s="13">
+      <c r="B79" s="12">
         <v>74</v>
       </c>
       <c r="C79" s="4"/>
@@ -2105,10 +2133,10 @@
       <c r="F79" s="3"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="14"/>
+      <c r="I79" s="13"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B80" s="13">
+      <c r="B80" s="12">
         <v>75</v>
       </c>
       <c r="C80" s="4"/>
@@ -2117,10 +2145,10 @@
       <c r="F80" s="3"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
-      <c r="I80" s="14"/>
+      <c r="I80" s="13"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B81" s="13">
+      <c r="B81" s="12">
         <v>76</v>
       </c>
       <c r="C81" s="4"/>
@@ -2129,10 +2157,10 @@
       <c r="F81" s="3"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
-      <c r="I81" s="14"/>
+      <c r="I81" s="13"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B82" s="13">
+      <c r="B82" s="12">
         <v>77</v>
       </c>
       <c r="C82" s="4"/>
@@ -2141,107 +2169,107 @@
       <c r="F82" s="3"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="14"/>
+      <c r="I82" s="13"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B83" s="13"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="4"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
-      <c r="I83" s="14"/>
+      <c r="I83" s="13"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B84" s="13"/>
+      <c r="B84" s="12"/>
       <c r="C84" s="4"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
-      <c r="I84" s="14"/>
+      <c r="I84" s="13"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B85" s="13"/>
+      <c r="B85" s="12"/>
       <c r="C85" s="4"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="14"/>
+      <c r="I85" s="13"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B86" s="13"/>
+      <c r="B86" s="12"/>
       <c r="C86" s="4"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
-      <c r="I86" s="14"/>
+      <c r="I86" s="13"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B87" s="13"/>
+      <c r="B87" s="12"/>
       <c r="C87" s="4"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
-      <c r="I87" s="14"/>
+      <c r="I87" s="13"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B88" s="13"/>
+      <c r="B88" s="12"/>
       <c r="C88" s="4"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
-      <c r="I88" s="14"/>
+      <c r="I88" s="13"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B89" s="13"/>
+      <c r="B89" s="12"/>
       <c r="C89" s="4"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
-      <c r="I89" s="14"/>
+      <c r="I89" s="13"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B90" s="13"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="4"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
-      <c r="I90" s="14"/>
+      <c r="I90" s="13"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B91" s="13"/>
+      <c r="B91" s="12"/>
       <c r="C91" s="4"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
-      <c r="I91" s="14"/>
+      <c r="I91" s="13"/>
     </row>
     <row r="92" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="15"/>
+      <c r="B92" s="14"/>
       <c r="C92" s="4"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="18"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
